--- a/tutorial supportive data/datasheet.xlsx
+++ b/tutorial supportive data/datasheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\zisvfs12\Home\christian.paret\Desktop\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\share\RaBIDS\tutorial supportive data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28520" windowHeight="12590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7030"/>
   </bookViews>
   <sheets>
     <sheet name="datasheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>SPM</t>
   </si>
@@ -75,9 +75,6 @@
     <t>overwrite existing session directory</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>overwrite import</t>
   </si>
   <si>
@@ -103,15 +100,6 @@
   </si>
   <si>
     <t>overwrite existing sots files (…multicond.mat)</t>
-  </si>
-  <si>
-    <t>overwrite preprocess</t>
-  </si>
-  <si>
-    <t>overwrite derivatives</t>
-  </si>
-  <si>
-    <t>overwrite firstlevel</t>
   </si>
   <si>
     <t>dicoms</t>
@@ -601,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -618,22 +606,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -653,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -673,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -681,10 +669,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -698,10 +686,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -715,10 +703,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -727,18 +715,18 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -747,32 +735,32 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -786,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -805,10 +793,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>426</v>
@@ -817,18 +805,18 @@
         <v>430</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -836,10 +824,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D17">
         <v>366</v>
@@ -848,18 +836,18 @@
         <v>370</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -867,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -876,18 +864,18 @@
         <v>192</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -895,10 +883,10 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D21">
         <v>72</v>
@@ -906,13 +894,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -920,10 +908,10 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D23">
         <v>36</v>
@@ -931,13 +919,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -948,32 +936,32 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
         <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -981,7 +969,7 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -990,15 +978,15 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -1006,7 +994,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
         <v>17</v>
@@ -1015,40 +1003,18 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
         <v>26</v>
-      </c>
-      <c r="B35" t="s">
-        <v>27</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/tutorial supportive data/datasheet.xlsx
+++ b/tutorial supportive data/datasheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\share\RaBIDS\tutorial supportive data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\RaBIDS\tutorial supportive data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="datasheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
   <si>
     <t>SPM</t>
   </si>
@@ -228,9 +228,6 @@
     <t>gre_field_mapping</t>
   </si>
   <si>
-    <t>fieldmap phasediff</t>
-  </si>
-  <si>
     <t>sourcedata path</t>
   </si>
   <si>
@@ -238,6 +235,15 @@
   </si>
   <si>
     <t>E:\mytrainingdata\data exchange server\RABIDS-example\sourcedata</t>
+  </si>
+  <si>
+    <t>EchoTimes need to be defined for fieldmap phasedifference images. Assign TE1 to "MinImages" colomn and TE2 to "MaxImages" colomn</t>
+  </si>
+  <si>
+    <t>fieldmap phasediff [scenes] [faces]</t>
+  </si>
+  <si>
+    <t>UserInput: you may add [TaskName] of epi-sequences for which this fieldmap is intended for. You may assign one or more TaskNames; each TaskName needs to be in square brackets.</t>
   </si>
 </sst>
 </file>
@@ -281,10 +287,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -591,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -740,13 +747,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
         <v>70</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -911,10 +918,13 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D23">
         <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -926,6 +936,15 @@
       </c>
       <c r="C24" t="s">
         <v>68</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4.92</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7.38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">

--- a/tutorial supportive data/datasheet.xlsx
+++ b/tutorial supportive data/datasheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\RaBIDS\tutorial supportive data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\zisvfs12\Home\christian.paret\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -250,6 +250,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -598,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -938,10 +941,10 @@
         <v>68</v>
       </c>
       <c r="D24" s="3">
-        <v>4.92</v>
+        <v>4.9199999999999999E-3</v>
       </c>
       <c r="E24" s="3">
-        <v>7.38</v>
+        <v>7.3800000000000003E-3</v>
       </c>
       <c r="F24" t="s">
         <v>72</v>
